--- a/data/trans_dic/P25_5-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_5-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece asma</t>
+          <t>Población que padece asma (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,14</t>
+          <t>2,23; 8,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 10,21</t>
+          <t>3,78; 11,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 8,83</t>
+          <t>4,37; 13,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,1</t>
+          <t>4,63; 14,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,63</t>
+          <t>4,77; 13,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 8,82</t>
+          <t>3,71; 11,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,38</t>
+          <t>3,44; 11,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,65</t>
+          <t>4,51; 15,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,99</t>
+          <t>4,37; 9,85</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 9,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 10,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 12,86</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,75; 17,03</t>
+          <t>4,87; 21,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 11,78</t>
+          <t>1,91; 10,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 16,73</t>
+          <t>4,72; 18,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 12,86</t>
+          <t>2,9; 15,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,34</t>
+          <t>3,83; 13,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 13,91</t>
+          <t>1,8; 10,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,56</t>
+          <t>3,07; 12,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,95</t>
+          <t>5,38; 29,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 12,64</t>
+          <t>4,83; 13,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 8,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 13,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 18,96</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 17,17</t>
+          <t>0,0; 22,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,77</t>
+          <t>0,0; 24,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 19,52</t>
+          <t>0,0; 38,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,15; 18,15</t>
+          <t>0,0; 18,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 16,82</t>
+          <t>5,56; 29,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 19,62</t>
+          <t>2,92; 25,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,48; 13,9</t>
+          <t>5,22; 29,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 11,5</t>
+          <t>2,69; 23,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 15,5</t>
+          <t>4,54; 21,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 17,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 25,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 17,51</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,09%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,94</t>
+          <t>4,21; 11,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,24</t>
+          <t>3,56; 9,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 10,09</t>
+          <t>5,78; 13,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,7</t>
+          <t>4,93; 11,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,81</t>
+          <t>5,78; 11,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,1</t>
+          <t>4,12; 9,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,77</t>
+          <t>5,01; 10,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,64</t>
+          <t>6,57; 18,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 9,01</t>
+          <t>5,7; 10,25</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 8,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>5,89; 10,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 12,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece asma (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20264</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25968</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30249</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>44400</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41583</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27082</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26284</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>44521</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>61847</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53050</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>56533</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>88921</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9608; 38419</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13837; 42895</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16656; 49764</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23887; 76409</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24283; 67927</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>15606; 46676</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14034; 45972</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25406; 85277</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>41044; 92527</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34490; 77248</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>37140; 81741</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>58510; 138788</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>34768</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15271</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31132</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28911</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30262</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16548</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21249</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>53662</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65030</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>31820</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52381</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>82573</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17501; 77432</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6090; 33129</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15227; 60994</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11972; 65625</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16285; 55441</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6094; 36889</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>10271; 40610</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23323; 128002</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>37906; 106399</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17035; 56654</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32604; 87532</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47584; 160302</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7254</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8908</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6426</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14213</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9351</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12905</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12755</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21467</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12916</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21814</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19181</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23327</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19537</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 33297</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21947</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5497; 28926</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2382; 20572</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4309; 23942</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2992; 26608</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9102; 42755</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4491; 28692</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8706; 43270</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7079; 40410</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>62287</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44805</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70290</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>79737</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86057</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52981</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60438</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>110938</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>148344</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>97786</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>130728</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>190676</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37529; 103764</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27219; 69437</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45626; 108263</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>51623; 121427</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>59756; 119791</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>34629; 79066</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41301; 88771</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72806; 207449</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>109751; 197257</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>70206; 131644</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>95119; 175510</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>136801; 276418</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
